--- a/backend/sql/data/snapshots/snap0/formsTable.xlsx
+++ b/backend/sql/data/snapshots/snap0/formsTable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,31 +460,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1K4v6Iyh9MWTu-4i3uYWtblb57wrwJC_hLnzYLk8UKtk</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://docs.google.com/forms/d/e/1FAIpQLSelQPNkCQPGjJarUXqqdUaYByhb1wEQMQ3yBrhtJRC9IytnTQ/viewform?usp=sf_link</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>C:\Users\halro\Desktop\Tlamim-project\backend\sql\data\formsAnswers\xlsx\1K4v6Iyh9MWTu-4i3uYWtblb57wrwJC_hLnzYLk8UKtk.xlsx</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>xlsx</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/sql/data/snapshots/snap0/formsTable.xlsx
+++ b/backend/sql/data/snapshots/snap0/formsTable.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>מספר שלב</t>
+          <t>שלב</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">

--- a/backend/sql/data/snapshots/snap0/formsTable.xlsx
+++ b/backend/sql/data/snapshots/snap0/formsTable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,31 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1K4v6Iyh9MWTu-4i3uYWtblb57wrwJC_hLnzYLk8UKtk</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://docs.google.com/forms/d/e/1FAIpQLSelQPNkCQPGjJarUXqqdUaYByhb1wEQMQ3yBrhtJRC9IytnTQ/viewform?usp=sf_link</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>C:\Users\halro\Desktop\Tlamim-project\backend\sql\data\formsAnswers\xlsx\1K4v6Iyh9MWTu-4i3uYWtblb57wrwJC_hLnzYLk8UKtk.xlsx</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>xlsx</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/sql/data/snapshots/snap0/formsTable.xlsx
+++ b/backend/sql/data/snapshots/snap0/formsTable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,31 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>10MfIxyz-UdkYJooKPiCU3u3uNHBiGcsgRxajHUNDhOU</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://docs.google.com/forms/d/e/1FAIpQLSeucoRDtIFtAsYYEZIqeSz3Dgx_4wP05bjDBpNiFefFQW8cRw/viewform?usp=sf_link</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>C:\Users\halro\Desktop\Tlamim-project\backend\sql\data\formsAnswers\xlsx\10MfIxyz-UdkYJooKPiCU3u3uNHBiGcsgRxajHUNDhOU.xlsx</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>xlsx</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
